--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\김강민\대학원\수업\딥러닝 (COSE474)\과제채점\Assigment3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953C219-0433-4F45-BB8C-4062E493C32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D9EFD-96AA-41B2-83D6-6874ECE32AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Batch_size</t>
   </si>
@@ -39,9 +40,6 @@
     <t>Learning rate</t>
   </si>
   <si>
-    <t>Weight decay</t>
-  </si>
-  <si>
     <t>training time (m)</t>
   </si>
   <si>
@@ -118,6 +116,47 @@
   </si>
   <si>
     <t>Setting #4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight decay(l2_reg_lambda)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight initialization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate
+(starter_learning_rate)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch
+(num_epochs)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropout
+(keep_prob)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight decay
+(l2_reg_lambda)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR decay
+(learning_rate_decay_rate)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning_rate_decay_step</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +368,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,17 +392,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +494,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>799489</xdr:colOff>
+      <xdr:colOff>751864</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>198311</xdr:rowOff>
     </xdr:to>
@@ -528,8 +573,8 @@
       <xdr:rowOff>273553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1027019</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>198311</xdr:rowOff>
     </xdr:to>
@@ -611,8 +656,8 @@
       <xdr:rowOff>273553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>932311</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2161036</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>198311</xdr:rowOff>
     </xdr:to>
@@ -1071,23 +1116,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
@@ -1096,22 +1142,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="B2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1119,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -1131,45 +1177,45 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4">
         <v>0.01</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
         <v>1E-3</v>
@@ -1181,13 +1227,13 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1195,19 +1241,19 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>128</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4">
         <v>0.01</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4">
         <v>1E-3</v>
@@ -1222,10 +1268,10 @@
         <v>1E-4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1233,19 +1279,19 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <v>128</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4">
         <v>0.01</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4">
         <v>1E-3</v>
@@ -1260,10 +1306,10 @@
         <v>1E-4</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1271,19 +1317,19 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4">
         <v>1E-3</v>
@@ -1298,39 +1344,39 @@
         <v>1E-4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1344,262 +1390,262 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="B20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1613,4 +1659,232 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB61154-C1E1-4A0F-8541-A0FC895ECF54}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.625" customWidth="1"/>
+    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>128</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D9EFD-96AA-41B2-83D6-6874ECE32AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D13D0-E53F-4486-9C4E-402F0470859F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Batch_size</t>
   </si>
@@ -124,11 +124,6 @@
   </si>
   <si>
     <t>Weight initialization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning rate
-(starter_learning_rate)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -156,7 +151,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Learning rate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>(starter_learning_rate)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test accuracy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_Accuracy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,6 +223,37 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="courier"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -209,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -331,13 +391,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,11 +467,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,228 +1762,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB61154-C1E1-4A0F-8541-A0FC895ECF54}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.625" customWidth="1"/>
-    <col min="11" max="11" width="23.875" customWidth="1"/>
-    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.75" style="18" customWidth="1"/>
+    <col min="11" max="11" width="28" style="18" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" style="18" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>128</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="C2" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="24">
+        <v>100</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="24">
+        <v>1</v>
+      </c>
+      <c r="K2" s="24">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>29.4859681248664</v>
+      </c>
+      <c r="M2" s="24">
+        <v>29400</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24">
+        <v>1601085669</v>
+      </c>
+      <c r="P2" s="27">
+        <v>0.30329999327659601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>128</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="24">
         <v>0.01</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="24">
         <v>1E-3</v>
       </c>
-      <c r="F2" s="4">
-        <v>200</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F3" s="24">
+        <v>100</v>
+      </c>
+      <c r="G3" s="24">
         <v>0.1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H3" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="J3" s="24">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L3" s="25">
+        <v>28.4915625969568</v>
+      </c>
+      <c r="M3" s="24">
+        <v>31150</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="24">
+        <v>1601088232</v>
+      </c>
+      <c r="P3" s="27">
+        <v>9.8300002515315996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>128</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" s="24">
+        <v>100</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J4" s="24">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>35.803842461109099</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1050</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="24">
+        <v>1601090325</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0.103000000119209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>128</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>128</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="E5" s="24">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="4">
-        <v>200</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F5" s="24">
+        <v>100</v>
+      </c>
+      <c r="G5" s="24">
         <v>0.1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H5" s="24">
         <v>1E-4</v>
       </c>
-      <c r="I3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I5" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>128</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>200</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>128</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>200</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5" s="24">
         <v>0.96</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="24">
         <v>5000</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
+      <c r="L5" s="25">
+        <v>39.242698876063002</v>
+      </c>
+      <c r="M5" s="24">
+        <v>34650</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="24">
+        <v>1601092481</v>
+      </c>
+      <c r="P5" s="27">
+        <v>0.10140000283718099</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D13D0-E53F-4486-9C4E-402F0470859F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16FD52A-6A2C-4BFD-984B-22E136A2166C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +455,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,36 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,22 +1238,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1471,11 +1468,11 @@
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1489,262 +1486,262 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1764,270 +1761,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB61154-C1E1-4A0F-8541-A0FC895ECF54}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.75" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="18" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.75" style="18" customWidth="1"/>
-    <col min="11" max="11" width="28" style="18" customWidth="1"/>
-    <col min="12" max="12" width="22.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.25" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.75" style="14" customWidth="1"/>
+    <col min="11" max="11" width="28" style="14" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" style="14" customWidth="1"/>
     <col min="15" max="15" width="15.625" customWidth="1"/>
     <col min="16" max="16" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="20">
         <v>128</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="20">
         <v>0.01</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="20">
         <v>1E-3</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="20">
         <v>100</v>
       </c>
-      <c r="G2" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="24">
+      <c r="G2" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="24" t="b">
+      <c r="I2" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="20">
         <v>1</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="20">
         <v>0</v>
       </c>
-      <c r="L2" s="25">
-        <v>29.4859681248664</v>
-      </c>
-      <c r="M2" s="24">
-        <v>29400</v>
-      </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="24">
-        <v>1601085669</v>
-      </c>
-      <c r="P2" s="27">
-        <v>0.30329999327659601</v>
+      <c r="L2" s="21">
+        <v>34.0967059850692</v>
+      </c>
+      <c r="M2" s="20">
+        <v>33250</v>
+      </c>
+      <c r="N2" s="21">
+        <v>0.57880002260208097</v>
+      </c>
+      <c r="O2" s="20">
+        <v>1601127452</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0.59890002012252797</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="A3" s="20">
         <v>128</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="20">
         <v>0.01</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="20">
         <v>100</v>
       </c>
-      <c r="G3" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="24">
+      <c r="G3" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="15">
         <v>1E-4</v>
       </c>
-      <c r="I3" s="24" t="b">
+      <c r="I3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="20">
         <v>1</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="20">
         <v>0</v>
       </c>
-      <c r="L3" s="25">
-        <v>28.4915625969568</v>
-      </c>
-      <c r="M3" s="24">
-        <v>31150</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="24">
-        <v>1601088232</v>
-      </c>
-      <c r="P3" s="27">
-        <v>9.8300002515315996E-2</v>
+      <c r="L3" s="21">
+        <v>33.095992378393802</v>
+      </c>
+      <c r="M3" s="20">
+        <v>30100</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0.60159999132156305</v>
+      </c>
+      <c r="O3" s="20">
+        <v>1601129504</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0.101899996399879</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+      <c r="A4" s="20">
         <v>128</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <v>0.01</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>100</v>
       </c>
-      <c r="G4" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="24">
+      <c r="G4" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="20">
         <v>1E-4</v>
       </c>
-      <c r="I4" s="24" t="b">
+      <c r="I4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="15">
         <v>0</v>
       </c>
-      <c r="L4" s="25">
-        <v>35.803842461109099</v>
-      </c>
-      <c r="M4" s="24">
-        <v>1050</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="24">
-        <v>1601090325</v>
-      </c>
-      <c r="P4" s="27">
-        <v>0.103000000119209</v>
+      <c r="L4" s="21">
+        <v>37.370669019222198</v>
+      </c>
+      <c r="M4" s="20">
+        <v>35000</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0.64800000190734797</v>
+      </c>
+      <c r="O4" s="20">
+        <v>1601131496</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0.10029999911785099</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
+      <c r="A5" s="20">
         <v>128</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>100</v>
       </c>
-      <c r="G5" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="24">
+      <c r="G5" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="20">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="24" t="b">
+      <c r="I5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="15">
         <v>0.96</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="15">
         <v>5000</v>
       </c>
-      <c r="L5" s="25">
-        <v>39.242698876063002</v>
-      </c>
-      <c r="M5" s="24">
-        <v>34650</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="24">
-        <v>1601092481</v>
-      </c>
-      <c r="P5" s="27">
-        <v>0.10140000283718099</v>
+      <c r="L5" s="21">
+        <v>38.969384002685501</v>
+      </c>
+      <c r="M5" s="20">
+        <v>28700</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0.64780002832412698</v>
+      </c>
+      <c r="O5" s="20">
+        <v>1601133755</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0.102099999785423</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16FD52A-6A2C-4BFD-984B-22E136A2166C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D8DF0-CE15-4145-957E-20ABC322AA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Batch_size</t>
   </si>
@@ -188,11 +197,18 @@
     <t>val_Accuracy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Accuracy Difference</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="\+#.####;\-#.####0;0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +271,7 @@
       <name val="courier"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +282,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,18 +483,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,12 +503,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1238,22 +1274,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1468,11 +1504,11 @@
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1486,262 +1522,262 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="2:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1759,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB61154-C1E1-4A0F-8541-A0FC895ECF54}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1783,128 +1819,135 @@
     <col min="14" max="14" width="15.25" style="14" customWidth="1"/>
     <col min="15" max="15" width="15.625" customWidth="1"/>
     <col min="16" max="16" width="16.75" customWidth="1"/>
+    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="Q1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>128</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>0.01</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="16">
         <v>100</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>0.9</v>
       </c>
       <c r="H2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="20" t="b">
+      <c r="I2" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>1</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>0</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="17">
         <v>34.0967059850692</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="16">
         <v>33250</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="17">
         <v>0.57880002260208097</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>1601127452</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="18">
         <v>0.59890002012252797</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="Q2" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>128</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>0.01</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="16">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="16">
         <v>100</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="16">
         <v>0.9</v>
       </c>
       <c r="H3" s="15">
@@ -1913,51 +1956,55 @@
       <c r="I3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="16">
         <v>1</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="16">
         <v>0</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="17">
         <v>33.095992378393802</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="16">
         <v>30100</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="17">
         <v>0.60159999132156305</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="16">
         <v>1601129504</v>
       </c>
-      <c r="P3" s="22">
-        <v>0.101899996399879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="P3" s="18">
+        <v>0.61529999971389704</v>
+      </c>
+      <c r="Q3" s="27">
+        <f>P3-P2</f>
+        <v>1.6399979591369074E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>128</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>0.01</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>100</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>0.9</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="16">
         <v>1E-4</v>
       </c>
       <c r="I4" s="15" t="b">
@@ -1969,48 +2016,52 @@
       <c r="K4" s="15">
         <v>0</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="17">
         <v>37.370669019222198</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="16">
         <v>35000</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="17">
         <v>0.64800000190734797</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="16">
         <v>1601131496</v>
       </c>
-      <c r="P4" s="22">
-        <v>0.10029999911785099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="P4" s="18">
+        <v>0.65380001068115201</v>
+      </c>
+      <c r="Q4" s="27">
+        <f t="shared" ref="Q4:Q5" si="0">P4-P3</f>
+        <v>3.8500010967254972E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>128</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>100</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>0.9</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="16">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="20" t="b">
+      <c r="I5" s="16" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="15">
@@ -2019,24 +2070,33 @@
       <c r="K5" s="15">
         <v>5000</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="17">
         <v>38.969384002685501</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="16">
         <v>28700</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <v>0.64780002832412698</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="16">
         <v>1601133755</v>
       </c>
-      <c r="P5" s="22">
-        <v>0.102099999785423</v>
+      <c r="P5" s="18">
+        <v>0.65049999952316195</v>
+      </c>
+      <c r="Q5" s="27">
+        <f t="shared" si="0"/>
+        <v>-3.3000111579900571E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
